--- a/biology/Histoire de la zoologie et de la botanique/Thomas_Wright_(géologue)/Thomas_Wright_(géologue).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Thomas_Wright_(géologue)/Thomas_Wright_(géologue).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Thomas_Wright_(g%C3%A9ologue)</t>
+          <t>Thomas_Wright_(géologue)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Wright (9 novembre 1809 – 17 novembre 1884) est un chirurgien et paléontologue britannique.
 Wright publie de nombreux articles sur les fossiles qu'il a collectionnés dans les Cotswolds, par exemple Lias Ammonites of the British Isles (Les Ammonites du Lias en Grande-Bretagne).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Thomas_Wright_(g%C3%A9ologue)</t>
+          <t>Thomas_Wright_(géologue)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il naît à Paisley dans le Renfrewshire et étudie au collège de chirurgie à Dublin. En 1846 il s'installe à Cheltenham où il devient officier médical du district urbain  et chirurgien au Cheltenham General Hospital. Il gagne la médaille Wollaston en 1878 et devient membre de la Royal Society en 1879.
 Une partie de sa collection de fossiles a été vendue au British Museum après sa mort.
